--- a/5_create_final/titulo_entre_videos.xlsx
+++ b/5_create_final/titulo_entre_videos.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="13">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -37,13 +37,28 @@
     <t xml:space="preserve">.mp4</t>
   </si>
   <si>
-    <t xml:space="preserve">Esto es una pruena 1</t>
+    <t xml:space="preserve">Las ventas del smartphone plegable de Huawei casi se duplican en el tercer trimestre</t>
   </si>
   <si>
-    <t xml:space="preserve">Esto es una pruena 2</t>
+    <t xml:space="preserve">Microsoft lanzará el emparejamiento automático del Quest 3 en PCs con Windows 11 en diciembre</t>
   </si>
   <si>
-    <t xml:space="preserve">Esto es una pruena 3</t>
+    <t xml:space="preserve">Windows 365 Link es el cliente ligero de Microsoft para Windows en la nube, con un precio de $349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apple lanza iOS 18.1.1 con importantes correcciones de seguridad para el iPhone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instagram implementa una función de restablecimiento para recomendaciones personalizadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Samsung Galaxy S25 Ultra apunta a un importante aumento de precio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mejores AirTags de Apple están en camino, con rumores sobre el AirTag 2 que predicen dos grandes mejoras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mistral presenta nuevos modelos de IA y funciones de chat.</t>
   </si>
 </sst>
 </file>
@@ -119,7 +134,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -130,6 +145,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -324,12 +343,12 @@
   <dimension ref="A1:D97"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="40.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="81.74"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -346,7 +365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
@@ -357,11 +376,11 @@
         <f aca="false">A2&amp;B2</f>
         <v>1.mp4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
@@ -372,11 +391,11 @@
         <f aca="false">A3&amp;B3</f>
         <v>2.mp4</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
@@ -387,11 +406,11 @@
         <f aca="false">A4&amp;B4</f>
         <v>3.mp4</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
@@ -402,11 +421,11 @@
         <f aca="false">A5&amp;B5</f>
         <v>4.mp4</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
@@ -417,11 +436,11 @@
         <f aca="false">A6&amp;B6</f>
         <v>5.mp4</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
@@ -432,11 +451,11 @@
         <f aca="false">A7&amp;B7</f>
         <v>6.mp4</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
@@ -447,11 +466,11 @@
         <f aca="false">A8&amp;B8</f>
         <v>7.mp4</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>8</v>
       </c>
@@ -461,6 +480,9 @@
       <c r="C9" s="2" t="str">
         <f aca="false">A9&amp;B9</f>
         <v>8.mp4</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/5_create_final/titulo_entre_videos.xlsx
+++ b/5_create_final/titulo_entre_videos.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="9">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -37,28 +37,16 @@
     <t xml:space="preserve">.mp4</t>
   </si>
   <si>
-    <t xml:space="preserve">Las ventas del smartphone plegable de Huawei casi se duplican en el tercer trimestre</t>
+    <t xml:space="preserve">Windows</t>
   </si>
   <si>
-    <t xml:space="preserve">Microsoft lanzará el emparejamiento automático del Quest 3 en PCs con Windows 11 en diciembre</t>
+    <t xml:space="preserve">MacOS</t>
   </si>
   <si>
-    <t xml:space="preserve">Windows 365 Link es el cliente ligero de Microsoft para Windows en la nube, con un precio de $349</t>
+    <t xml:space="preserve">Linux</t>
   </si>
   <si>
-    <t xml:space="preserve">Apple lanza iOS 18.1.1 con importantes correcciones de seguridad para el iPhone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instagram implementa una función de restablecimiento para recomendaciones personalizadas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El Samsung Galaxy S25 Ultra apunta a un importante aumento de precio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mejores AirTags de Apple están en camino, con rumores sobre el AirTag 2 que predicen dos grandes mejoras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mistral presenta nuevos modelos de IA y funciones de chat.</t>
+    <t xml:space="preserve">My opinion</t>
   </si>
 </sst>
 </file>
@@ -147,7 +135,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -343,7 +331,7 @@
   <dimension ref="A1:D97"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -380,7 +368,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
@@ -395,7 +383,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
@@ -425,7 +413,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
@@ -436,11 +424,9 @@
         <f aca="false">A6&amp;B6</f>
         <v>5.mp4</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
@@ -451,11 +437,9 @@
         <f aca="false">A7&amp;B7</f>
         <v>6.mp4</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
@@ -466,11 +450,9 @@
         <f aca="false">A8&amp;B8</f>
         <v>7.mp4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>8</v>
       </c>
@@ -481,9 +463,7 @@
         <f aca="false">A9&amp;B9</f>
         <v>8.mp4</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">

--- a/5_create_final/titulo_entre_videos.xlsx
+++ b/5_create_final/titulo_entre_videos.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="14">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -37,16 +37,31 @@
     <t xml:space="preserve">.mp4</t>
   </si>
   <si>
-    <t xml:space="preserve">Windows</t>
+    <t xml:space="preserve">Spotify Wrapped 2024 agrega un podcast de IA</t>
   </si>
   <si>
-    <t xml:space="preserve">MacOS</t>
+    <t xml:space="preserve">El director ejecutivo de Intel, Pat Gelsinger, fue destituido por la junta</t>
   </si>
   <si>
-    <t xml:space="preserve">Linux</t>
+    <t xml:space="preserve">OpenAI recibe una nueva inversión de $ 1.5 mil millones de SoftBank</t>
   </si>
   <si>
-    <t xml:space="preserve">My opinion</t>
+    <t xml:space="preserve">Intel anuncia las GPU Arc B580 y Arc B570 con un precio de $ 249 y $ 219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los nuevos dispositivos portátiles para juegos Claw de MSI tienen procesadores Lunar Lake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La PS5 recibirá temas clásicos y secuencias de arranque para el 30.° aniversario de PlayStation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La AMD Radeon RX 8800 XT tiene un TDP de 220 W según la calculadora de PSU en línea de Seasonic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Morning After: Apple Music Replay está aquí para resaltar sus gustos cuestionables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gracias</t>
   </si>
 </sst>
 </file>
@@ -331,7 +346,7 @@
   <dimension ref="A1:D97"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -413,7 +428,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
@@ -424,9 +439,11 @@
         <f aca="false">A6&amp;B6</f>
         <v>5.mp4</v>
       </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
@@ -437,9 +454,11 @@
         <f aca="false">A7&amp;B7</f>
         <v>6.mp4</v>
       </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
@@ -450,9 +469,11 @@
         <f aca="false">A8&amp;B8</f>
         <v>7.mp4</v>
       </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>8</v>
       </c>
@@ -463,7 +484,9 @@
         <f aca="false">A9&amp;B9</f>
         <v>8.mp4</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
@@ -475,6 +498,9 @@
       <c r="C10" s="2" t="str">
         <f aca="false">A10&amp;B10</f>
         <v>9.mp4</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/5_create_final/titulo_entre_videos.xlsx
+++ b/5_create_final/titulo_entre_videos.xlsx
@@ -37,28 +37,28 @@
     <t xml:space="preserve">.mp4</t>
   </si>
   <si>
-    <t xml:space="preserve">Spotify Wrapped 2024 agrega un podcast de IA</t>
+    <t xml:space="preserve">Las acciones de Google, de Alphabet, suben un 6% después de que Google presente un "revolucionario" chip cuántico</t>
   </si>
   <si>
-    <t xml:space="preserve">El director ejecutivo de Intel, Pat Gelsinger, fue destituido por la junta</t>
+    <t xml:space="preserve">OpenAI confirma una nueva suscripción mensual de $200, ChatGPT Pro</t>
   </si>
   <si>
-    <t xml:space="preserve">OpenAI recibe una nueva inversión de $ 1.5 mil millones de SoftBank</t>
+    <t xml:space="preserve">Aparece misteriosamente en Geekbench el AMD Ryzen AI MAX Plus Pro 395 Strix Halo APU.</t>
   </si>
   <si>
-    <t xml:space="preserve">Intel anuncia las GPU Arc B580 y Arc B570 con un precio de $ 249 y $ 219</t>
+    <t xml:space="preserve">La actualización 2.2 de Cyberpunk 2077 afirma mejorar el rendimiento de Arrow Lake en hasta un 33%</t>
   </si>
   <si>
-    <t xml:space="preserve">Los nuevos dispositivos portátiles para juegos Claw de MSI tienen procesadores Lunar Lake</t>
+    <t xml:space="preserve">iOS 18.2 llega con funciones de generación de imágenes mediante Apple Intelligence</t>
   </si>
   <si>
-    <t xml:space="preserve">La PS5 recibirá temas clásicos y secuencias de arranque para el 30.° aniversario de PlayStation</t>
+    <t xml:space="preserve">Grok lanza accidentalmente un nuevo creador de imágenes por IA durante un breve periodo</t>
   </si>
   <si>
-    <t xml:space="preserve">La AMD Radeon RX 8800 XT tiene un TDP de 220 W según la calculadora de PSU en línea de Seasonic</t>
+    <t xml:space="preserve">La función Canvas de ChatGPT es un editor en tiempo real para inspirar tu escritura y programación</t>
   </si>
   <si>
-    <t xml:space="preserve">The Morning After: Apple Music Replay está aquí para resaltar sus gustos cuestionables</t>
+    <t xml:space="preserve">Fortnite está obteniendo un modo de disparos en primera persona 5v5</t>
   </si>
   <si>
     <t xml:space="preserve">Gracias</t>
@@ -71,7 +71,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +93,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -137,7 +143,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -150,8 +156,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -346,7 +356,7 @@
   <dimension ref="A1:D97"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9:D10"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -368,7 +378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
@@ -383,7 +393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
@@ -398,7 +408,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
@@ -413,7 +423,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
@@ -428,7 +438,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
@@ -443,7 +453,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
@@ -458,7 +468,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
@@ -473,7 +483,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>8</v>
       </c>
@@ -484,7 +494,7 @@
         <f aca="false">A9&amp;B9</f>
         <v>8.mp4</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -499,7 +509,7 @@
         <f aca="false">A10&amp;B10</f>
         <v>9.mp4</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="4" t="s">
         <v>13</v>
       </c>
     </row>
